--- a/4_aviation/radiative_forcing/data/data.xlsx
+++ b/4_aviation/radiative_forcing/data/data.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/radiative_forcing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB61176C-0242-AF43-B069-40F9520CB3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123A76C-7F58-184D-80DE-8E389A6AF4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="-15380" windowWidth="25600" windowHeight="28300" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Aerosols" sheetId="1" r:id="rId1"/>
+    <sheet name="Cirrus" sheetId="7" r:id="rId2"/>
+    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId3"/>
+    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId4"/>
+    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId5"/>
+    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
   <si>
     <t>RF Average [mW/m2]</t>
   </si>
@@ -50,9 +55,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Listed in Figure 19 in https://doi.org/10.5194/acp-21-17267-2021 </t>
-  </si>
-  <si>
     <t>Authors (Label)</t>
   </si>
   <si>
@@ -63,13 +65,187 @@
   </si>
   <si>
     <t>RF Upper Errorbar [mW/m2]</t>
+  </si>
+  <si>
+    <t>Zhou and Penner (2014)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/2014JD021914</t>
+  </si>
+  <si>
+    <t>Source Comment</t>
+  </si>
+  <si>
+    <t>Data in "Key Points"</t>
+  </si>
+  <si>
+    <t>Data in Abstract</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Time Period</t>
+  </si>
+  <si>
+    <t>Figure 12 and Section 7.4</t>
+  </si>
+  <si>
+    <t>Aerosol Effects</t>
+  </si>
+  <si>
+    <t>"Multi-year average (1996–2005)"</t>
+  </si>
+  <si>
+    <t>Righi et al. (2013)</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>1929-2021</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/airline-capacity-and-traffic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ourworldindata.org/grapher/airline-capacity-and-traffic </t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>air transport (pax)</t>
+  </si>
+  <si>
+    <t>air transport (freight)</t>
+  </si>
+  <si>
+    <t>1973-2021</t>
+  </si>
+  <si>
+    <t>available seat km (=capacity), pax seat km (=volume)</t>
+  </si>
+  <si>
+    <t>ton-km (volume)</t>
+  </si>
+  <si>
+    <t>Coverage (Time)</t>
+  </si>
+  <si>
+    <t>Coverage (Geo)</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1</t>
+  </si>
+  <si>
+    <t>https://unstats.un.org/sdgs/dataportal/database</t>
+  </si>
+  <si>
+    <t>Indicator 9.1.2</t>
+  </si>
+  <si>
+    <t>pax km (=volume)</t>
+  </si>
+  <si>
+    <t>2015-2021</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 </t>
+  </si>
+  <si>
+    <t>Source (Freight)</t>
+  </si>
+  <si>
+    <t>Source (Pax)</t>
+  </si>
+  <si>
+    <t>ASK [km] (Pax)</t>
+  </si>
+  <si>
+    <t>[Mtkm] (Freight)</t>
+  </si>
+  <si>
+    <t>Mt(CO₂)</t>
+  </si>
+  <si>
+    <t>2000-2021</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/data-and-statistics/charts/co2-emissions-in-aviation-in-the-net-zero-scenario-2000-2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iea.org/data-and-statistics/charts/co2-emissions-in-aviation-in-the-net-zero-scenario-2000-2030 </t>
+  </si>
+  <si>
+    <t>201X-2021</t>
+  </si>
+  <si>
+    <t>Country-Level</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=AIRTRANS_CO2</t>
+  </si>
+  <si>
+    <t>Emissions [Mt(CO₂)]</t>
+  </si>
+  <si>
+    <t>Digby et al.</t>
+  </si>
+  <si>
+    <t>Aviation Induced Cirrus (through all pathways)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2021GL095882</t>
+  </si>
+  <si>
+    <t>Sec. 4.2</t>
+  </si>
+  <si>
+    <t>Soot-Cirrus-Effect</t>
+  </si>
+  <si>
+    <t>Righi et al.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/acp-21-17267-2021</t>
+  </si>
+  <si>
+    <t>Sec. 5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/JCLI-D-19-0467.1</t>
+  </si>
+  <si>
+    <t>2021?</t>
+  </si>
+  <si>
+    <t>Bickel et al.</t>
+  </si>
+  <si>
+    <t>2020?</t>
+  </si>
+  <si>
+    <t>"low efficacy"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +257,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -425,31 +607,741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4226B8C9-07DB-A948-95B0-59F322DBDB63}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="4" max="6" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-200</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>-350</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>-69.5</v>
+      </c>
+      <c r="C4">
+        <v>2.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{32EBB1ED-ED4D-8043-BE65-08B6248952BB}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{8B77D679-B0DE-0949-9D4F-D9051DEEEB79}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{0EC24FFA-74D5-9941-9CFB-8A637FD967BA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AB2CBF-40D5-8B4C-9562-6666918B2301}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>-3</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>-35</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{F8D26D72-7A39-FC40-B426-2A6559188167}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{4276176B-FC45-DC4F-A1A8-343264BEE100}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{0B821C35-B022-6E49-852A-E78955DB4D89}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EACD8F-7651-124D-9B78-74540E5F86F3}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>4504515271586.0303</v>
+      </c>
+      <c r="C2">
+        <v>118257.21100000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>4489444871465.9805</v>
+      </c>
+      <c r="C3">
+        <v>110860.83500009542</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>4379359487046.5298</v>
+      </c>
+      <c r="C4">
+        <v>117506.67299999995</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>4443203755337.5195</v>
+      </c>
+      <c r="C5">
+        <v>124203.19899999998</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>4944362870068.8096</v>
+      </c>
+      <c r="C6">
+        <v>139032.94</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>5229355276244.1396</v>
+      </c>
+      <c r="C7">
+        <v>141483.60299999994</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>5500959426295.9199</v>
+      </c>
+      <c r="C8">
+        <v>148937.60399999999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>5876065252473.1699</v>
+      </c>
+      <c r="C9">
+        <v>158205.94599999988</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>6062667139324.0996</v>
+      </c>
+      <c r="C10">
+        <v>158487.87400000001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>5948502617837.1797</v>
+      </c>
+      <c r="C11">
+        <v>175509.34365439601</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>6307072096947.9902</v>
+      </c>
+      <c r="C12">
+        <v>182498.6270779699</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>6747537000000</v>
+      </c>
+      <c r="C13">
+        <v>183532.23005902267</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>7021134000000</v>
+      </c>
+      <c r="C14">
+        <v>175567.34224884296</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>7349025000000</v>
+      </c>
+      <c r="C15">
+        <v>176421.55781354744</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>7765176000000</v>
+      </c>
+      <c r="C16">
+        <v>185517.10946141923</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <v>8293327000000</v>
+      </c>
+      <c r="C17">
+        <v>188363.41631234458</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>8901086000000</v>
+      </c>
+      <c r="C18">
+        <v>195588.27509403415</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>9473126000000</v>
+      </c>
+      <c r="C19">
+        <v>213628.64717206248</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
+        <v>10147668000000</v>
+      </c>
+      <c r="C20">
+        <v>222156.70077933485</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21">
+        <v>10516737000000</v>
+      </c>
+      <c r="C21">
+        <v>219524.44784500514</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22">
+        <v>4540566000000</v>
+      </c>
+      <c r="C22">
+        <v>182526.18487654746</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2021</v>
+      </c>
+      <c r="B23">
+        <v>5357978000000</v>
+      </c>
+      <c r="C23">
+        <v>219227.32846961028</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <f>(B23-B12)/B12</f>
+        <v>-0.15048093352337918</v>
+      </c>
+      <c r="G23">
+        <f>(C23-C12)/C12</f>
+        <v>0.20125467232117081</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4F61268A-353B-FE45-BC0B-A526B35A9E5C}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{059D9E55-1FFD-C847-8F83-FC8CC1E0FEEB}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{760EC74F-C6CB-E74B-BEAB-78A4F724E68C}"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{378B84F1-F69A-8542-8B46-8E6A954CE7BB}"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{63C170DA-95EA-9B43-A7E7-12371037B576}"/>
+    <hyperlink ref="D10" r:id="rId6" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{B1D5B890-BDA0-B04A-B9D6-2138C7A805AD}"/>
+    <hyperlink ref="D12" r:id="rId7" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{9F638B55-AC6D-E242-B4D2-68CE63FCBF49}"/>
+    <hyperlink ref="D14" r:id="rId8" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{F17F07E6-78BD-B841-99B5-DBC4B50BF8B5}"/>
+    <hyperlink ref="D16" r:id="rId9" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{D873C62B-CDEB-E043-A816-3CC5A7387FD6}"/>
+    <hyperlink ref="D18" r:id="rId10" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{84867DCD-3749-D344-A9D4-75F4AF82088E}"/>
+    <hyperlink ref="D20" r:id="rId11" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{27FF28F4-C4A3-C246-B35D-D9CBEE60D282}"/>
+    <hyperlink ref="D22" r:id="rId12" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{5CF06A72-71EA-D749-B5A2-91ACE3C02F90}"/>
+    <hyperlink ref="D5" r:id="rId13" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{6AA557AC-2E17-4847-8FC4-F49690734F28}"/>
+    <hyperlink ref="D7" r:id="rId14" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{9718A017-D4F1-4846-BA56-138D81497506}"/>
+    <hyperlink ref="D9" r:id="rId15" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{EE4834F1-A867-A84D-ADAC-1356D5412FA2}"/>
+    <hyperlink ref="D11" r:id="rId16" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{2B0F995A-6D94-B64A-A46C-8BC1379E49BA}"/>
+    <hyperlink ref="D13" r:id="rId17" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{01B5B622-75DD-4C4E-9389-42AFB8144784}"/>
+    <hyperlink ref="D15" r:id="rId18" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{73933E0F-109D-F74B-BD43-C78997131426}"/>
+    <hyperlink ref="D17" r:id="rId19" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{8242F43E-1709-E94A-A589-AB10A91CF74A}"/>
+    <hyperlink ref="D19" r:id="rId20" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{E2756B9B-F306-C246-986D-0D193CEF5216}"/>
+    <hyperlink ref="D21" r:id="rId21" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{9E5AA5A3-0857-DE4E-956C-1BC6641389F1}"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://data.worldbank.org/indicator/IS.AIR.GOOD.MT.K1 " xr:uid="{52740D89-DCD0-094A-BCA1-941D349BCB3F}"/>
+    <hyperlink ref="E2" r:id="rId23" xr:uid="{F7529AC0-F6A0-F945-AC77-D60A703898E4}"/>
+    <hyperlink ref="E3" r:id="rId24" xr:uid="{E5DDFB51-37FD-0743-AE2D-761A3F0E3E3D}"/>
+    <hyperlink ref="E4" r:id="rId25" xr:uid="{5DA3E1DC-5770-B74A-8E6D-610454F43056}"/>
+    <hyperlink ref="E6" r:id="rId26" xr:uid="{08F3C7A5-85C7-704D-B732-44E3392CBFA1}"/>
+    <hyperlink ref="E8" r:id="rId27" xr:uid="{778BCD40-3907-6141-BE81-3FD64691991B}"/>
+    <hyperlink ref="E10" r:id="rId28" xr:uid="{F3E8BB44-18DA-C14A-A53E-85FC04972120}"/>
+    <hyperlink ref="E12" r:id="rId29" xr:uid="{502A5F26-E3DF-1E4D-96BC-524405619609}"/>
+    <hyperlink ref="E14" r:id="rId30" xr:uid="{8CFA6163-8F48-2F4C-B55A-B4A964A8EB4A}"/>
+    <hyperlink ref="E16" r:id="rId31" xr:uid="{EB8A9CD4-E920-0048-90E5-E4957B85CF32}"/>
+    <hyperlink ref="E18" r:id="rId32" xr:uid="{137FBB15-C772-CE45-BBAA-9C6C7720E0FA}"/>
+    <hyperlink ref="E20" r:id="rId33" xr:uid="{3D4C68F5-A08C-844F-930E-73B7B0F7F815}"/>
+    <hyperlink ref="E22" r:id="rId34" xr:uid="{8B223BA5-F827-2742-A817-BB05560C3D03}"/>
+    <hyperlink ref="E5" r:id="rId35" xr:uid="{55BAAB4D-1418-F64A-B697-6C315BB5AF2D}"/>
+    <hyperlink ref="E7" r:id="rId36" xr:uid="{0FC7BBE8-D52F-FE40-A3D5-CFFEEC87C4B4}"/>
+    <hyperlink ref="E9" r:id="rId37" xr:uid="{EFC88DFA-C298-F84F-958D-2E43287FBEFB}"/>
+    <hyperlink ref="E11" r:id="rId38" xr:uid="{09D0D0C9-D658-AF4F-BE6E-9706A88AB19A}"/>
+    <hyperlink ref="E13" r:id="rId39" xr:uid="{EC0D4261-0E71-234B-8D90-4C5426340059}"/>
+    <hyperlink ref="E15" r:id="rId40" xr:uid="{0E7BD5C0-5909-F34C-B8E2-19EDCF6FE140}"/>
+    <hyperlink ref="E17" r:id="rId41" xr:uid="{E2607B8A-0BD2-5D47-968C-CAE3E421084C}"/>
+    <hyperlink ref="E19" r:id="rId42" xr:uid="{F61EDD51-4E8D-C942-BA3C-205C875945ED}"/>
+    <hyperlink ref="E21" r:id="rId43" xr:uid="{9B6D4E1A-9C63-0441-A25E-CD67B458D286}"/>
+    <hyperlink ref="E23" r:id="rId44" xr:uid="{1123ABC3-8D2D-CA46-802B-922D4C666E68}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE1386B-8947-4145-B43C-774E9AB6CE64}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -459,30 +1351,209 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-200</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{32EBB1ED-ED4D-8043-BE65-08B6248952BB}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F70495D7-5F19-DB43-93FF-F378C28D8EC9}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{390F7E78-C10F-7241-B676-A34F263387BE}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{19251436-D19F-DF42-ADC2-A303A30EDA12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCFC758-CBDD-4041-A992-B02DB2D9C3B9}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{EED13E0D-C47B-CF42-845C-FA449E795CBE}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{ABCDD2EA-8CE8-704D-8C05-1635503532F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518F383D-6953-6948-B905-AFEBAE6985B1}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <f>355.03+320.54</f>
+        <v>675.56999999999994</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+      <c r="B3">
+        <f>288.14+465.88</f>
+        <v>754.02</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4">
+        <f>302.56+279.79</f>
+        <v>582.35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{921BA183-BD20-B049-B2AF-B5F1E809F271}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{559C1D10-72CF-F646-8744-2BD4F9517F8E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{20C1359C-F82C-E342-9300-7590B59BF2C8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4_aviation/radiative_forcing/data/data.xlsx
+++ b/4_aviation/radiative_forcing/data/data.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/radiative_forcing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123A76C-7F58-184D-80DE-8E389A6AF4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EAEC0B-7624-0846-B839-70B07581D3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Aerosols" sheetId="1" r:id="rId1"/>
-    <sheet name="Cirrus" sheetId="7" r:id="rId2"/>
-    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId3"/>
-    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId4"/>
-    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId5"/>
-    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId6"/>
+    <sheet name="CO2" sheetId="8" r:id="rId1"/>
+    <sheet name="Aerosols-Radiation" sheetId="9" r:id="rId2"/>
+    <sheet name="Aerosols" sheetId="1" r:id="rId3"/>
+    <sheet name="Cirrus" sheetId="7" r:id="rId4"/>
+    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId5"/>
+    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId6"/>
+    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId7"/>
+    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
   <si>
     <t>RF Average [mW/m2]</t>
   </si>
@@ -239,6 +241,36 @@
   </si>
   <si>
     <t>"low efficacy"</t>
+  </si>
+  <si>
+    <t>ERF Average [mW/m2]</t>
+  </si>
+  <si>
+    <t>ERF Lower Errorbar [mW/m2]</t>
+  </si>
+  <si>
+    <t>ERF Upper Errorbar [mW/m2]</t>
+  </si>
+  <si>
+    <t>Lee et al. (2021)</t>
+  </si>
+  <si>
+    <t>1940-2018</t>
+  </si>
+  <si>
+    <t>Greenhouse Effect</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atmosenv.2020.117834</t>
+  </si>
+  <si>
+    <t>Figure 3</t>
+  </si>
+  <si>
+    <t>Soot</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
   </si>
 </sst>
 </file>
@@ -606,11 +638,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC8425E-6C3D-DF45-8C41-D7C7B2B7E345}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="H2" sqref="G2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{3214F657-65B6-3949-9792-C233DCA15922}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A413DA-E32E-084D-9DB2-5D2D07AE2E23}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="221" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.94</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>2018</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-7.4</v>
+      </c>
+      <c r="B3">
+        <v>-19</v>
+      </c>
+      <c r="C3">
+        <v>-2.6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{E260C081-D69E-9846-B572-311B77B5859D}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{5653D563-CB3A-3A43-8DE8-0E7E4309CD2C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4226B8C9-07DB-A948-95B0-59F322DBDB63}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,13 +839,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -729,12 +946,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AB2CBF-40D5-8B4C-9562-6666918B2301}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,7 +1064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EACD8F-7651-124D-9B78-74540E5F86F3}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -1314,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE1386B-8947-4145-B43C-774E9AB6CE64}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1414,7 +1631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCFC758-CBDD-4041-A992-B02DB2D9C3B9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1491,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518F383D-6953-6948-B905-AFEBAE6985B1}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/4_aviation/radiative_forcing/data/data.xlsx
+++ b/4_aviation/radiative_forcing/data/data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/radiative_forcing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EAEC0B-7624-0846-B839-70B07581D3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFF8FB-1B8A-304D-BB53-8210AE044E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2" sheetId="8" r:id="rId1"/>
     <sheet name="Aerosols-Radiation" sheetId="9" r:id="rId2"/>
-    <sheet name="Aerosols" sheetId="1" r:id="rId3"/>
-    <sheet name="Cirrus" sheetId="7" r:id="rId4"/>
-    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId5"/>
-    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId6"/>
-    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId7"/>
-    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId8"/>
+    <sheet name="Water Vapor" sheetId="10" r:id="rId3"/>
+    <sheet name="Aerosols" sheetId="1" r:id="rId4"/>
+    <sheet name="Cirrus" sheetId="7" r:id="rId5"/>
+    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId6"/>
+    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId7"/>
+    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId8"/>
+    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="77">
   <si>
     <t>RF Average [mW/m2]</t>
   </si>
@@ -271,6 +272,9 @@
   </si>
   <si>
     <t>Sulfur</t>
+  </si>
+  <si>
+    <t>Lee et al., 2021</t>
   </si>
 </sst>
 </file>
@@ -641,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC8425E-6C3D-DF45-8C41-D7C7B2B7E345}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="H2" sqref="G2:H2"/>
+    <sheetView topLeftCell="B1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,7 +697,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>70</v>
@@ -721,7 +725,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="221" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>2018</v>
@@ -798,7 +802,7 @@
         <v>-2.6</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>2018</v>
@@ -823,6 +827,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243BADCE-6591-8748-A500-1137FA669F06}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{32801E1D-4050-B34C-901F-31F0D50102A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4226B8C9-07DB-A948-95B0-59F322DBDB63}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -946,7 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AB2CBF-40D5-8B4C-9562-6666918B2301}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1064,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EACD8F-7651-124D-9B78-74540E5F86F3}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -1531,7 +1608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE1386B-8947-4145-B43C-774E9AB6CE64}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1631,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCFC758-CBDD-4041-A992-B02DB2D9C3B9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1708,7 +1785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518F383D-6953-6948-B905-AFEBAE6985B1}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/4_aviation/radiative_forcing/data/data.xlsx
+++ b/4_aviation/radiative_forcing/data/data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/radiative_forcing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFF8FB-1B8A-304D-BB53-8210AE044E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E76F103-1D48-2F48-BFE0-237D5F163E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
+    <workbookView xWindow="-76800" yWindow="-15380" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2" sheetId="8" r:id="rId1"/>
-    <sheet name="Aerosols-Radiation" sheetId="9" r:id="rId2"/>
-    <sheet name="Water Vapor" sheetId="10" r:id="rId3"/>
-    <sheet name="Aerosols" sheetId="1" r:id="rId4"/>
-    <sheet name="Cirrus" sheetId="7" r:id="rId5"/>
-    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId6"/>
-    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId7"/>
-    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId8"/>
-    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId9"/>
+    <sheet name="NOx" sheetId="11" r:id="rId2"/>
+    <sheet name="Aerosols-Radiation" sheetId="9" r:id="rId3"/>
+    <sheet name="Water Vapor" sheetId="10" r:id="rId4"/>
+    <sheet name="Aerosols" sheetId="1" r:id="rId5"/>
+    <sheet name="Cirrus" sheetId="7" r:id="rId6"/>
+    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId7"/>
+    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId8"/>
+    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId9"/>
+    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
   <si>
     <t>RF Average [mW/m2]</t>
   </si>
@@ -275,6 +276,21 @@
   </si>
   <si>
     <t>Lee et al., 2021</t>
+  </si>
+  <si>
+    <t>Lee et al.</t>
+  </si>
+  <si>
+    <t>Short-Term Ozone Increase</t>
+  </si>
+  <si>
+    <t>Long-Term Ozone Decrease</t>
+  </si>
+  <si>
+    <t>Methane Decrease</t>
+  </si>
+  <si>
+    <t>Water Vapor Decrease</t>
   </si>
 </sst>
 </file>
@@ -646,7 +662,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,12 +736,217 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518F383D-6953-6948-B905-AFEBAE6985B1}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <f>355.03+320.54</f>
+        <v>675.56999999999994</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+      <c r="B3">
+        <f>288.14+465.88</f>
+        <v>754.02</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4">
+        <f>302.56+279.79</f>
+        <v>582.35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{921BA183-BD20-B049-B2AF-B5F1E809F271}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{559C1D10-72CF-F646-8744-2BD4F9517F8E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{20C1359C-F82C-E342-9300-7590B59BF2C8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFABCF25-2AB7-7B49-988A-160B7457AA32}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>49.3</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>2018</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-10.6</v>
+      </c>
+      <c r="B3">
+        <v>-20</v>
+      </c>
+      <c r="C3">
+        <v>-7.4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-21.2</v>
+      </c>
+      <c r="B4">
+        <v>-40</v>
+      </c>
+      <c r="C4">
+        <v>-15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>2018</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-3.2</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>2018</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{A5781F61-BB15-D740-A756-7A718CE60C0C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A413DA-E32E-084D-9DB2-5D2D07AE2E23}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="221" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="C1" zoomScale="221" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,7 +1047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243BADCE-6591-8748-A500-1137FA669F06}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -899,7 +1120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4226B8C9-07DB-A948-95B0-59F322DBDB63}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -1023,7 +1244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AB2CBF-40D5-8B4C-9562-6666918B2301}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1141,7 +1362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EACD8F-7651-124D-9B78-74540E5F86F3}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -1608,7 +1829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE1386B-8947-4145-B43C-774E9AB6CE64}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1708,7 +1929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCFC758-CBDD-4041-A992-B02DB2D9C3B9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1783,71 +2004,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518F383D-6953-6948-B905-AFEBAE6985B1}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2000</v>
-      </c>
-      <c r="B2">
-        <f>355.03+320.54</f>
-        <v>675.56999999999994</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2010</v>
-      </c>
-      <c r="B3">
-        <f>288.14+465.88</f>
-        <v>754.02</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2020</v>
-      </c>
-      <c r="B4">
-        <f>302.56+279.79</f>
-        <v>582.35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{921BA183-BD20-B049-B2AF-B5F1E809F271}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{559C1D10-72CF-F646-8744-2BD4F9517F8E}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{20C1359C-F82C-E342-9300-7590B59BF2C8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/4_aviation/radiative_forcing/data/data.xlsx
+++ b/4_aviation/radiative_forcing/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/radiative_forcing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E76F103-1D48-2F48-BFE0-237D5F163E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBAA114-3AA9-2A4C-ABBF-8FFB024EF4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-76800" yWindow="-15380" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC8425E-6C3D-DF45-8C41-D7C7B2B7E345}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="H2" sqref="G2:H2"/>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,7 +808,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -938,6 +938,7 @@
     <hyperlink ref="G2" r:id="rId1" xr:uid="{A5781F61-BB15-D740-A756-7A718CE60C0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/4_aviation/radiative_forcing/data/data.xlsx
+++ b/4_aviation/radiative_forcing/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/radiative_forcing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBAA114-3AA9-2A4C-ABBF-8FFB024EF4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E244A-AC1B-FB43-BB42-86D7C9736EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="-15380" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
   <si>
     <t>RF Average [mW/m2]</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Water Vapor Decrease</t>
+  </si>
+  <si>
+    <t>Net NOx Emissions</t>
   </si>
 </sst>
 </file>
@@ -805,10 +808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFABCF25-2AB7-7B49-988A-160B7457AA32}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,6 +895,12 @@
       <c r="F3" t="s">
         <v>79</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -912,6 +921,12 @@
       <c r="F4" t="s">
         <v>80</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -932,10 +947,46 @@
       <c r="F5" t="s">
         <v>81</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>17.5</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>2018</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{A5781F61-BB15-D740-A756-7A718CE60C0C}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{36443561-DBA1-184D-B82F-54417F061C62}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{026594D4-D124-A343-B4F6-79CF5C88BB7A}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{436E8ECE-3BDA-0842-BAA4-42525C9CF970}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{1969F975-4B4B-C04B-B987-0E85F3FF0058}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/4_aviation/radiative_forcing/data/data.xlsx
+++ b/4_aviation/radiative_forcing/data/data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/radiative_forcing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E244A-AC1B-FB43-BB42-86D7C9736EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDDC918-C2EB-AD48-AD3F-6EB89E660171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2" sheetId="8" r:id="rId1"/>
     <sheet name="NOx" sheetId="11" r:id="rId2"/>
     <sheet name="Aerosols-Radiation" sheetId="9" r:id="rId3"/>
     <sheet name="Water Vapor" sheetId="10" r:id="rId4"/>
-    <sheet name="Aerosols" sheetId="1" r:id="rId5"/>
+    <sheet name="Aerosols-Clouds" sheetId="1" r:id="rId5"/>
     <sheet name="Cirrus" sheetId="7" r:id="rId6"/>
     <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId7"/>
     <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId8"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
   <si>
     <t>RF Average [mW/m2]</t>
   </si>
@@ -71,18 +71,12 @@
     <t>RF Upper Errorbar [mW/m2]</t>
   </si>
   <si>
-    <t>Zhou and Penner (2014)</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1002/2014JD021914</t>
   </si>
   <si>
     <t>Source Comment</t>
   </si>
   <si>
-    <t>Data in "Key Points"</t>
-  </si>
-  <si>
     <t>Data in Abstract</t>
   </si>
   <si>
@@ -294,6 +288,15 @@
   </si>
   <si>
     <t>Net NOx Emissions</t>
+  </si>
+  <si>
+    <t>All Cloud Formation from Sulfur</t>
+  </si>
+  <si>
+    <t>Sec. 4.6.1.</t>
+  </si>
+  <si>
+    <t>Cirrus Formation from Soot</t>
   </si>
 </sst>
 </file>
@@ -681,28 +684,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -716,19 +719,19 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>71</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -769,7 +772,7 @@
         <v>675.56999999999994</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -781,7 +784,7 @@
         <v>754.02</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -793,7 +796,7 @@
         <v>582.35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFABCF25-2AB7-7B49-988A-160B7457AA32}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+    <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -826,28 +829,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -861,19 +864,19 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>2018</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -887,19 +890,19 @@
         <v>-7.4</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>2018</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -913,19 +916,19 @@
         <v>-15</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>2018</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -939,19 +942,19 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>2018</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -965,19 +968,19 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>2018</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A413DA-E32E-084D-9DB2-5D2D07AE2E23}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="221" workbookViewId="0">
+    <sheetView zoomScale="159" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1014,28 +1017,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1049,19 +1052,19 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>2018</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1075,19 +1078,19 @@
         <v>-2.6</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>2018</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1120,28 +1123,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1155,13 +1158,13 @@
         <v>3.2</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1176,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4226B8C9-07DB-A948-95B0-59F322DBDB63}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,28 +1192,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -1221,75 +1224,79 @@
         <v>-200</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>-260</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <f>-200+60</f>
+        <v>-140</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>-350</v>
+        <v>-69.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>2.4</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>-76</v>
+      </c>
+      <c r="C4">
+        <v>-37</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>-69.5</v>
-      </c>
-      <c r="C4">
-        <v>2.4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{32EBB1ED-ED4D-8043-BE65-08B6248952BB}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{8B77D679-B0DE-0949-9D4F-D9051DEEEB79}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{0EC24FFA-74D5-9941-9CFB-8A637FD967BA}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{0EC24FFA-74D5-9941-9CFB-8A637FD967BA}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{7C8982B5-5C4C-4C4A-9B90-A955CAEDDF00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1326,16 +1333,16 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1349,19 +1356,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1372,36 +1379,36 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1432,19 +1439,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1458,10 +1465,10 @@
         <v>118257.21100000001</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1475,10 +1482,10 @@
         <v>110860.83500009542</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1492,10 +1499,10 @@
         <v>117506.67299999995</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1509,10 +1516,10 @@
         <v>124203.19899999998</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1526,10 +1533,10 @@
         <v>139032.94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1543,10 +1550,10 @@
         <v>141483.60299999994</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1560,10 +1567,10 @@
         <v>148937.60399999999</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1577,10 +1584,10 @@
         <v>158205.94599999988</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1594,10 +1601,10 @@
         <v>158487.87400000001</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1611,10 +1618,10 @@
         <v>175509.34365439601</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1628,10 +1635,10 @@
         <v>182498.6270779699</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1645,10 +1652,10 @@
         <v>183532.23005902267</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1662,10 +1669,10 @@
         <v>175567.34224884296</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,10 +1686,10 @@
         <v>176421.55781354744</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1696,10 +1703,10 @@
         <v>185517.10946141923</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1713,10 +1720,10 @@
         <v>188363.41631234458</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1730,10 +1737,10 @@
         <v>195588.27509403415</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1747,10 +1754,10 @@
         <v>213628.64717206248</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1764,10 +1771,10 @@
         <v>222156.70077933485</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1781,10 +1788,10 @@
         <v>219524.44784500514</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1798,10 +1805,10 @@
         <v>182526.18487654746</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1815,10 +1822,10 @@
         <v>219227.32846961028</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <f>(B23-B12)/B12</f>
@@ -1899,16 +1906,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1919,56 +1926,56 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1997,16 +2004,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2017,36 +2024,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/4_aviation/radiative_forcing/data/data.xlsx
+++ b/4_aviation/radiative_forcing/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/radiative_forcing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDDC918-C2EB-AD48-AD3F-6EB89E660171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA24B3C-9C04-F443-AE0D-3CFBF9776765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
   </bookViews>
@@ -17,12 +17,13 @@
     <sheet name="NOx" sheetId="11" r:id="rId2"/>
     <sheet name="Aerosols-Radiation" sheetId="9" r:id="rId3"/>
     <sheet name="Water Vapor" sheetId="10" r:id="rId4"/>
-    <sheet name="Aerosols-Clouds" sheetId="1" r:id="rId5"/>
-    <sheet name="Cirrus" sheetId="7" r:id="rId6"/>
-    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId7"/>
-    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId8"/>
-    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId9"/>
-    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId10"/>
+    <sheet name="Contrail-Cirrus" sheetId="12" r:id="rId5"/>
+    <sheet name="Natural Cirrus" sheetId="7" r:id="rId6"/>
+    <sheet name="Aerosols-Clouds" sheetId="1" r:id="rId7"/>
+    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId8"/>
+    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId9"/>
+    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId10"/>
+    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="84">
   <si>
     <t>RF Average [mW/m2]</t>
   </si>
@@ -303,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,6 +322,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,9 +355,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -369,9 +378,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -409,7 +418,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -515,7 +524,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -657,7 +666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,6 +752,83 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCFC758-CBDD-4041-A992-B02DB2D9C3B9}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{EED13E0D-C47B-CF42-845C-FA449E795CBE}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{ABCDD2EA-8CE8-704D-8C05-1635503532F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518F383D-6953-6948-B905-AFEBAE6985B1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -814,7 +900,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243BADCE-6591-8748-A500-1137FA669F06}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="190" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1176,18 +1262,219 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BAD34A-FF77-E644-9783-83898819E29A}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>57.4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{729DF0D5-994C-B443-95C7-8915D911C467}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{C93607FB-104F-F64C-B063-1E11335C72DC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AB2CBF-40D5-8B4C-9562-6666918B2301}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H4" sqref="D4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>-3</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>-35</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{F8D26D72-7A39-FC40-B426-2A6559188167}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{4276176B-FC45-DC4F-A1A8-343264BEE100}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{0B821C35-B022-6E49-852A-E78955DB4D89}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4226B8C9-07DB-A948-95B0-59F322DBDB63}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1303,125 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AB2CBF-40D5-8B4C-9562-6666918B2301}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>-3</v>
-      </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>-35</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{F8D26D72-7A39-FC40-B426-2A6559188167}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{4276176B-FC45-DC4F-A1A8-343264BEE100}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{0B821C35-B022-6E49-852A-E78955DB4D89}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EACD8F-7651-124D-9B78-74540E5F86F3}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -1888,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE1386B-8947-4145-B43C-774E9AB6CE64}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1986,81 +2155,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCFC758-CBDD-4041-A992-B02DB2D9C3B9}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{EED13E0D-C47B-CF42-845C-FA449E795CBE}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{ABCDD2EA-8CE8-704D-8C05-1635503532F0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/4_aviation/radiative_forcing/data/data.xlsx
+++ b/4_aviation/radiative_forcing/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/radiative_forcing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA24B3C-9C04-F443-AE0D-3CFBF9776765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D39B9C6-86DA-E747-8219-424BDC7D40ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="5" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2" sheetId="8" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="Aerosols-Radiation" sheetId="9" r:id="rId3"/>
     <sheet name="Water Vapor" sheetId="10" r:id="rId4"/>
     <sheet name="Contrail-Cirrus" sheetId="12" r:id="rId5"/>
-    <sheet name="Natural Cirrus" sheetId="7" r:id="rId6"/>
-    <sheet name="Aerosols-Clouds" sheetId="1" r:id="rId7"/>
-    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId8"/>
-    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId9"/>
-    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId10"/>
-    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId11"/>
+    <sheet name="Aerosols-NaturalClouds" sheetId="1" r:id="rId6"/>
+    <sheet name="AirTrans Volume (Historical)" sheetId="3" r:id="rId7"/>
+    <sheet name="AirTrans Volume Sources" sheetId="2" r:id="rId8"/>
+    <sheet name="AirTrans Emissions Sources" sheetId="5" r:id="rId9"/>
+    <sheet name="AirTrans Emissions (Historical)" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,10 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="84">
-  <si>
-    <t>RF Average [mW/m2]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t>Source</t>
   </si>
@@ -66,12 +62,6 @@
     <t>Penner et al. (2018)</t>
   </si>
   <si>
-    <t>RF Lower Errorbar [mW/m2]</t>
-  </si>
-  <si>
-    <t>RF Upper Errorbar [mW/m2]</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1002/2014JD021914</t>
   </si>
   <si>
@@ -213,18 +203,9 @@
     <t>Sec. 4.2</t>
   </si>
   <si>
-    <t>Soot-Cirrus-Effect</t>
-  </si>
-  <si>
-    <t>Righi et al.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.5194/acp-21-17267-2021</t>
   </si>
   <si>
-    <t>Sec. 5</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1175/JCLI-D-19-0467.1</t>
   </si>
   <si>
@@ -237,9 +218,6 @@
     <t>2020?</t>
   </si>
   <si>
-    <t>"low efficacy"</t>
-  </si>
-  <si>
     <t>ERF Average [mW/m2]</t>
   </si>
   <si>
@@ -298,6 +276,12 @@
   </si>
   <si>
     <t>Cirrus Formation from Soot</t>
+  </si>
+  <si>
+    <t>Righi et al. (2021)</t>
+  </si>
+  <si>
+    <t>Sec.5</t>
   </si>
 </sst>
 </file>
@@ -693,28 +677,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -728,19 +712,19 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -752,83 +736,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCFC758-CBDD-4041-A992-B02DB2D9C3B9}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{EED13E0D-C47B-CF42-845C-FA449E795CBE}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{ABCDD2EA-8CE8-704D-8C05-1635503532F0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518F383D-6953-6948-B905-AFEBAE6985B1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -840,13 +747,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -858,7 +765,7 @@
         <v>675.56999999999994</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -870,7 +777,7 @@
         <v>754.02</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -882,7 +789,7 @@
         <v>582.35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -915,28 +822,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -950,19 +857,19 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>2018</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -976,19 +883,19 @@
         <v>-7.4</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>2018</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1002,19 +909,19 @@
         <v>-15</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>2018</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1028,19 +935,19 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>2018</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1054,19 +961,19 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>2018</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1103,28 +1010,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1138,19 +1045,19 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>2018</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1164,19 +1071,19 @@
         <v>-2.6</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>2018</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1209,28 +1116,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1244,13 +1151,13 @@
         <v>3.2</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1265,36 +1172,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BAD34A-FF77-E644-9783-83898819E29A}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1308,28 +1215,28 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>2018</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1338,134 +1245,16 @@
     <hyperlink ref="G3" r:id="rId2" xr:uid="{C93607FB-104F-F64C-B063-1E11335C72DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AB2CBF-40D5-8B4C-9562-6666918B2301}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4226B8C9-07DB-A948-95B0-59F322DBDB63}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="D4:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>-3</v>
-      </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>-35</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{F8D26D72-7A39-FC40-B426-2A6559188167}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{4276176B-FC45-DC4F-A1A8-343264BEE100}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{0B821C35-B022-6E49-852A-E78955DB4D89}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4226B8C9-07DB-A948-95B0-59F322DBDB63}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1479,31 +1268,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1518,79 +1307,130 @@
         <v>-140</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-69.5</v>
+        <v>-35</v>
       </c>
       <c r="C3">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-69.5</v>
+      </c>
+      <c r="C4">
+        <v>2.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>-76</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-37</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{32EBB1ED-ED4D-8043-BE65-08B6248952BB}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{0EC24FFA-74D5-9941-9CFB-8A637FD967BA}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{7C8982B5-5C4C-4C4A-9B90-A955CAEDDF00}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{0EC24FFA-74D5-9941-9CFB-8A637FD967BA}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{7C8982B5-5C4C-4C4A-9B90-A955CAEDDF00}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{F8D26D72-7A39-FC40-B426-2A6559188167}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{75EF46A8-D925-2147-A36A-0974B6EB887B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EACD8F-7651-124D-9B78-74540E5F86F3}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -1608,19 +1448,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1634,10 +1474,10 @@
         <v>118257.21100000001</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1651,10 +1491,10 @@
         <v>110860.83500009542</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1668,10 +1508,10 @@
         <v>117506.67299999995</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1685,10 +1525,10 @@
         <v>124203.19899999998</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1702,10 +1542,10 @@
         <v>139032.94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1719,10 +1559,10 @@
         <v>141483.60299999994</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1736,10 +1576,10 @@
         <v>148937.60399999999</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1753,10 +1593,10 @@
         <v>158205.94599999988</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1770,10 +1610,10 @@
         <v>158487.87400000001</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1787,10 +1627,10 @@
         <v>175509.34365439601</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1804,10 +1644,10 @@
         <v>182498.6270779699</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1821,10 +1661,10 @@
         <v>183532.23005902267</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1838,10 +1678,10 @@
         <v>175567.34224884296</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1855,10 +1695,10 @@
         <v>176421.55781354744</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1872,10 +1712,10 @@
         <v>185517.10946141923</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1889,10 +1729,10 @@
         <v>188363.41631234458</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1906,10 +1746,10 @@
         <v>195588.27509403415</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1923,10 +1763,10 @@
         <v>213628.64717206248</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1940,10 +1780,10 @@
         <v>222156.70077933485</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1957,10 +1797,10 @@
         <v>219524.44784500514</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1974,10 +1814,10 @@
         <v>182526.18487654746</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1991,10 +1831,10 @@
         <v>219227.32846961028</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <f>(B23-B12)/B12</f>
@@ -2057,7 +1897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE1386B-8947-4145-B43C-774E9AB6CE64}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2075,76 +1915,76 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2155,4 +1995,81 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCFC758-CBDD-4041-A992-B02DB2D9C3B9}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{EED13E0D-C47B-CF42-845C-FA449E795CBE}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{ABCDD2EA-8CE8-704D-8C05-1635503532F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4_aviation/radiative_forcing/data/data.xlsx
+++ b/4_aviation/radiative_forcing/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/radiative_forcing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D39B9C6-86DA-E747-8219-424BDC7D40ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF8C4F-ADE8-144C-88A1-616EBF2DA862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="5" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="5" xr2:uid="{E3FD932E-9066-134E-8CA1-1881199592D8}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="86">
   <si>
     <t>Source</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Emissions [Mt(CO₂)]</t>
   </si>
   <si>
-    <t>Digby et al.</t>
-  </si>
-  <si>
     <t>Aviation Induced Cirrus (through all pathways)</t>
   </si>
   <si>
@@ -282,6 +279,30 @@
   </si>
   <si>
     <t>Sec.5</t>
+  </si>
+  <si>
+    <t>Sulfur-Induced Cloudiness</t>
+  </si>
+  <si>
+    <t>Gettelman and Chen (2013)</t>
+  </si>
+  <si>
+    <t>Digby et al. (2021)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/grl.50520</t>
+  </si>
+  <si>
+    <t>Sec. 4</t>
+  </si>
+  <si>
+    <t>Zhou and Penner (2014)</t>
+  </si>
+  <si>
+    <t>Kapadia et al. (2016)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/acp-16-10521-2016</t>
   </si>
 </sst>
 </file>
@@ -677,13 +698,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -712,19 +733,19 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -822,13 +843,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -857,19 +878,19 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>2018</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
         <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -883,19 +904,19 @@
         <v>-7.4</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>2018</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
         <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -909,19 +930,19 @@
         <v>-15</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>2018</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
         <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -935,19 +956,19 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>2018</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
         <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -961,19 +982,19 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>2018</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
         <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1010,13 +1031,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1045,19 +1066,19 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>2018</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
         <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1071,19 +1092,19 @@
         <v>-2.6</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>2018</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
         <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1116,13 +1137,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1151,13 +1172,13 @@
         <v>3.2</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
         <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1180,13 +1201,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1215,28 +1236,28 @@
         <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>2018</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1251,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4226B8C9-07DB-A948-95B0-59F322DBDB63}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1264,17 +1285,18 @@
     <col min="4" max="4" width="25.83203125" customWidth="1"/>
     <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1310,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -1330,16 +1352,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
         <v>77</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1353,7 +1375,7 @@
         <v>2.4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1382,13 +1404,13 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
         <v>74</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1402,19 +1424,59 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
-        <v>51</v>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <v>2013</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-23.3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8">
+        <v>2016</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1424,6 +1486,8 @@
     <hyperlink ref="G5" r:id="rId3" xr:uid="{7C8982B5-5C4C-4C4A-9B90-A955CAEDDF00}"/>
     <hyperlink ref="G6" r:id="rId4" xr:uid="{F8D26D72-7A39-FC40-B426-2A6559188167}"/>
     <hyperlink ref="G3" r:id="rId5" xr:uid="{75EF46A8-D925-2147-A36A-0974B6EB887B}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{C736A7F0-AEBE-AD4D-8939-D3BB92DCE1DA}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{6FB4C920-E0F6-2B4C-980E-612D2DDFECCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
